--- a/excel/AI Agents for Productivity Tools.xlsx
+++ b/excel/AI Agents for Productivity Tools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49afe6381fd2a7e4/Desktop/DigeonTech/Newsletter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0cbccc594207fa0/Desktop/digeon/digeon/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{2CC0EF49-3A90-447B-A697-EDBD8F859CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7300663F-D09C-4762-96F9-B93D7D7AA81D}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{2CC0EF49-3A90-447B-A697-EDBD8F859CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1B40D31-DCF6-421F-8859-15158359A322}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{84BDA290-58B8-4157-B27E-FCF04844B14B}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{84BDA290-58B8-4157-B27E-FCF04844B14B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>AI Agents for Prodcutivity Tools</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Superhuman AI</t>
   </si>
   <si>
-    <t>Superhuman</t>
-  </si>
-  <si>
     <t>Clockwise</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Real-time meeting transcription and AI summaries</t>
   </si>
   <si>
-    <t>Tactiq.io</t>
-  </si>
-  <si>
     <t>Magical</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>AI meeting notes and collaborative action lists</t>
   </si>
   <si>
-    <t>Cogram.com</t>
-  </si>
-  <si>
     <t>SaneBox</t>
   </si>
   <si>
@@ -144,9 +135,6 @@
     <t>AI project management, idea generation, task planning</t>
   </si>
   <si>
-    <t>Taskade.com</t>
-  </si>
-  <si>
     <t>ClickUp AI</t>
   </si>
   <si>
@@ -162,36 +150,24 @@
     <t>AI writing assistant for emails, messages, content</t>
   </si>
   <si>
-    <t>HyperWrite.ai</t>
-  </si>
-  <si>
     <t>Flowrite</t>
   </si>
   <si>
     <t>AI email and message writer</t>
   </si>
   <si>
-    <t>Flowrite.com</t>
-  </si>
-  <si>
     <t>Folk AI</t>
   </si>
   <si>
     <t>AI-powered CRM and contact management</t>
   </si>
   <si>
-    <t>Folk.app</t>
-  </si>
-  <si>
     <t>AI Alfred</t>
   </si>
   <si>
     <t>AI task manager and personal assistant</t>
   </si>
   <si>
-    <t>Alfred</t>
-  </si>
-  <si>
     <t>AI based email writing app</t>
   </si>
   <si>
@@ -204,7 +180,58 @@
     <t>AI email organizer, personal assistant</t>
   </si>
   <si>
-    <t>Fyxer AI Executive Assistant</t>
+    <t>https://www.notion.com/product/ai</t>
+  </si>
+  <si>
+    <t>https://www.usemotion.com/</t>
+  </si>
+  <si>
+    <t>https://reclaim.ai/</t>
+  </si>
+  <si>
+    <t>https://mem.ai/</t>
+  </si>
+  <si>
+    <t>https://superhuman.com/</t>
+  </si>
+  <si>
+    <t>https://www.getclockwise.com/</t>
+  </si>
+  <si>
+    <t>https://otter.ai/</t>
+  </si>
+  <si>
+    <t>https://fireflies.ai/</t>
+  </si>
+  <si>
+    <t>https://www.getmagical.com/</t>
+  </si>
+  <si>
+    <t>https://www.cogram.com/</t>
+  </si>
+  <si>
+    <t>https://www.sanebox.com/</t>
+  </si>
+  <si>
+    <t>https://www.taskade.com/</t>
+  </si>
+  <si>
+    <t>https://clickup.com/brain</t>
+  </si>
+  <si>
+    <t>https://www.hyperwriteai.com/</t>
+  </si>
+  <si>
+    <t>https://www.maestrolabs.com/flowrite</t>
+  </si>
+  <si>
+    <t>https://www.folk.app/</t>
+  </si>
+  <si>
+    <t>https://www.fyxer.com/</t>
+  </si>
+  <si>
+    <t>https://www.alfredapp.com/</t>
   </si>
 </sst>
 </file>
@@ -287,10 +314,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -328,7 +359,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -434,7 +465,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -576,7 +607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -584,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3328ECEC-9F08-444D-9814-6A87EBF93CF4}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -617,144 +648,144 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -768,7 +799,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -782,10 +813,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -793,13 +824,13 @@
         <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -810,80 +841,81 @@
         <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="D20" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
@@ -891,63 +923,49 @@
         <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>54</v>
+      <c r="D23" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://www.notion.so/product/ai" xr:uid="{7D6E0BD7-F192-4EA2-B49F-AC9CF18259BA}"/>
-    <hyperlink ref="D5" r:id="rId2" display="https://www.usemotion.com/" xr:uid="{147168E9-F0B0-47FA-9EC1-6CFBB6609BA4}"/>
-    <hyperlink ref="D6" r:id="rId3" display="https://reclaim.ai/" xr:uid="{CDD6731C-53DB-460D-BAD0-407721D15445}"/>
-    <hyperlink ref="D7" r:id="rId4" display="https://mem.ai/" xr:uid="{3EB1A32C-B944-45EC-ACFD-C6D53A70D80A}"/>
-    <hyperlink ref="D8" r:id="rId5" display="https://superhuman.com/" xr:uid="{2A4458B7-07EC-40FD-89C4-B0C205043487}"/>
-    <hyperlink ref="D9" r:id="rId6" display="https://www.getclockwise.com/" xr:uid="{12EA9632-2E80-46D8-8B83-2B8667885C50}"/>
-    <hyperlink ref="D10" r:id="rId7" display="https://otter.ai/" xr:uid="{9EBA3B90-55AD-4B4C-8558-9E93EB81A41D}"/>
-    <hyperlink ref="D11" r:id="rId8" display="https://fireflies.ai/" xr:uid="{276B30E3-E5FF-4B7D-85F4-DEF3F2FFD3EF}"/>
-    <hyperlink ref="D12" r:id="rId9" display="https://tactiq.io/" xr:uid="{279AC160-42B3-4D15-BA92-5D5E827B94C8}"/>
-    <hyperlink ref="D13" r:id="rId10" display="https://www.getmagical.com/" xr:uid="{9A37D2DA-8428-4BCD-A1B0-84CE414ABA94}"/>
-    <hyperlink ref="D14" r:id="rId11" xr:uid="{350B5BDA-CB2F-4F04-8A78-DFD2D33513B8}"/>
-    <hyperlink ref="D15" r:id="rId12" display="https://krisp.ai/" xr:uid="{38C2C4C5-84D8-4105-A534-C9E615B90ACD}"/>
-    <hyperlink ref="D16" r:id="rId13" display="https://www.cogram.com/" xr:uid="{AC77D395-D48D-452C-9EB1-62E7C9ED68F6}"/>
-    <hyperlink ref="D17" r:id="rId14" display="https://www.sanebox.com/" xr:uid="{891E6B86-7736-42F9-B13F-507410A36A1B}"/>
-    <hyperlink ref="D18" r:id="rId15" display="https://www.taskade.com/" xr:uid="{EF0E81F5-D647-4C3C-A1F6-C4E109F384F6}"/>
-    <hyperlink ref="D19" r:id="rId16" display="https://clickup.com/ai" xr:uid="{862EF743-8F02-438D-931E-EAAFEA8526F9}"/>
-    <hyperlink ref="D20" r:id="rId17" display="https://hyperwriteai.com/" xr:uid="{F738BEF9-A406-4A34-A800-7EE8349B650D}"/>
-    <hyperlink ref="D21" r:id="rId18" display="https://flowrite.com/" xr:uid="{5661F94A-A920-437D-B0D4-82F26589DB52}"/>
-    <hyperlink ref="D22" r:id="rId19" display="https://www.folk.app/" xr:uid="{AE2B7F46-6D68-4A65-9875-2ECF7C8F0BD1}"/>
-    <hyperlink ref="D24" r:id="rId20" display="https://www.alfredapp.com/" xr:uid="{CCBBB5E5-2FD9-4CA3-9FF2-BE163D089416}"/>
-    <hyperlink ref="D23" r:id="rId21" display="https://www.fyxer.com/" xr:uid="{860536BC-B29C-4789-90ED-65AF9F56918D}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{7D6E0BD7-F192-4EA2-B49F-AC9CF18259BA}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{147168E9-F0B0-47FA-9EC1-6CFBB6609BA4}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{CDD6731C-53DB-460D-BAD0-407721D15445}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{3EB1A32C-B944-45EC-ACFD-C6D53A70D80A}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{2A4458B7-07EC-40FD-89C4-B0C205043487}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{12EA9632-2E80-46D8-8B83-2B8667885C50}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{9EBA3B90-55AD-4B4C-8558-9E93EB81A41D}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{276B30E3-E5FF-4B7D-85F4-DEF3F2FFD3EF}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{279AC160-42B3-4D15-BA92-5D5E827B94C8}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{9A37D2DA-8428-4BCD-A1B0-84CE414ABA94}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{350B5BDA-CB2F-4F04-8A78-DFD2D33513B8}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{38C2C4C5-84D8-4105-A534-C9E615B90ACD}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{AC77D395-D48D-452C-9EB1-62E7C9ED68F6}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{891E6B86-7736-42F9-B13F-507410A36A1B}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{EF0E81F5-D647-4C3C-A1F6-C4E109F384F6}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{862EF743-8F02-438D-931E-EAAFEA8526F9}"/>
+    <hyperlink ref="D20" r:id="rId17" xr:uid="{5661F94A-A920-437D-B0D4-82F26589DB52}"/>
+    <hyperlink ref="D21" r:id="rId18" xr:uid="{AE2B7F46-6D68-4A65-9875-2ECF7C8F0BD1}"/>
+    <hyperlink ref="D23" r:id="rId19" xr:uid="{CCBBB5E5-2FD9-4CA3-9FF2-BE163D089416}"/>
+    <hyperlink ref="D22" r:id="rId20" xr:uid="{860536BC-B29C-4789-90ED-65AF9F56918D}"/>
+    <hyperlink ref="D19" r:id="rId21" xr:uid="{6590BC5E-274A-43B8-B21A-B0DFB47E851F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
